--- a/Stochastics/o_log.xlsx
+++ b/Stochastics/o_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08737</v>
+        <v>0.09712899999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1063.984196</v>
+        <v>1298.681173</v>
       </c>
       <c r="G2" t="n">
         <v>552.183497</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.142352</v>
+        <v>6.256023</v>
       </c>
       <c r="K2" t="n">
-        <v>0.102312</v>
+        <v>0.109921</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -572,15 +572,15 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[110, 29, 140, 158, 170, 31, 47, 173, 254, 209]</t>
+          <t>[55, 244, 334, 316, 53]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -598,30 +598,30 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08481900000000001</v>
+        <v>0.09245</v>
       </c>
       <c r="F3" t="n">
-        <v>1461.174877</v>
+        <v>1221.716383</v>
       </c>
       <c r="G3" t="n">
-        <v>1063.984196</v>
+        <v>1298.681173</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>5.012538</v>
+        <v>6.032087</v>
       </c>
       <c r="K3" t="n">
-        <v>0.106014</v>
+        <v>0.110063</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -631,15 +631,15 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[129, 201, 279, 159, 387, 54, 261, 144, 51, 312]</t>
+          <t>[207, 84, 297, 111, 318, 258, 105]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -657,16 +657,16 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
-        <v>0.086066</v>
+        <v>0.09128699999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1525.770613</v>
+        <v>1772.186734</v>
       </c>
       <c r="G4" t="n">
-        <v>1461.174877</v>
+        <v>1298.681173</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.090581</v>
+        <v>5.90568</v>
       </c>
       <c r="K4" t="n">
-        <v>0.105912</v>
+        <v>0.11001</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -694,11 +694,11 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[32, 11, 122, 392, 371, 167, 59, 71, 200]</t>
+          <t>[254, 161, 299, 56, 290, 68, 59, 71, 158, 242, 368, 170, 272, 110, 347, 95]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -716,16 +716,16 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.090167</v>
+        <v>0.09167</v>
       </c>
       <c r="F5" t="n">
-        <v>1661.990556</v>
+        <v>2067.677106</v>
       </c>
       <c r="G5" t="n">
-        <v>1525.770613</v>
+        <v>1772.186734</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5.302778</v>
+        <v>6.02403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.105839</v>
+        <v>0.111609</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -753,11 +753,11 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[242, 95]</t>
+          <t>[107, 328, 111, 198, 331, 219, 31]</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -775,30 +775,30 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08391800000000001</v>
+        <v>0.090909</v>
       </c>
       <c r="F6" t="n">
-        <v>1879.612257</v>
+        <v>2013.097293</v>
       </c>
       <c r="G6" t="n">
-        <v>1661.990556</v>
+        <v>2067.677106</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>5.257447</v>
+        <v>5.983059</v>
       </c>
       <c r="K6" t="n">
-        <v>0.106251</v>
+        <v>0.111592</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -808,15 +808,15 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[265, 55, 331, 176, 359, 220, 74, 244, 53]</t>
+          <t>[233, 302, 389, 215, 392, 206, 86, 65, 167, 239]</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -834,30 +834,30 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.085436</v>
+        <v>0.08838799999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>2121.472878</v>
+        <v>1947.325528</v>
       </c>
       <c r="G7" t="n">
-        <v>1879.612257</v>
+        <v>2067.677106</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.609018</v>
+        <v>5.821268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.107959</v>
+        <v>0.111482</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -867,15 +867,15 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[265, 137, 97, 176, 244, 220, 260, 215, 53, 248]</t>
+          <t>[332, 308, 164, 14, 389, 119, 50, 275, 17]</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -893,16 +893,16 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.085436</v>
+        <v>0.082479</v>
       </c>
       <c r="F8" t="n">
-        <v>2093.146482</v>
+        <v>1778.449107</v>
       </c>
       <c r="G8" t="n">
-        <v>2121.472878</v>
+        <v>2067.677106</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>5.533715</v>
+        <v>5.491531</v>
       </c>
       <c r="K8" t="n">
-        <v>0.108036</v>
+        <v>0.111653</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -926,15 +926,15 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[230, 350, 380, 35, 305, 188, 62, 86]</t>
+          <t>[166, 307, 316, 187, 334, 319, 1, 154, 355, 346, 301, 208, 268, 13]</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -952,16 +952,16 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08219899999999999</v>
+        <v>0.088736</v>
       </c>
       <c r="F9" t="n">
-        <v>1736.291075</v>
+        <v>1205.303815</v>
       </c>
       <c r="G9" t="n">
-        <v>2121.472878</v>
+        <v>2067.677106</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.77201</v>
+        <v>3.660784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.107701</v>
+        <v>0.111872</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -985,15 +985,15 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[14, 224, 80, 17, 245, 275, 131, 227, 332, 89, 353, 197]</t>
+          <t>[212, 296, 62, 386, 392, 380, 239, 200, 35, 32, 230]</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1011,30 +1011,30 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
-        <v>0.080064</v>
+        <v>0.09449100000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1959.84184</v>
+        <v>2173.679872</v>
       </c>
       <c r="G10" t="n">
-        <v>2121.472878</v>
+        <v>2067.677106</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>5.812474</v>
+        <v>6.241317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.109059</v>
+        <v>0.111669</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1048,11 +1048,11 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[67, 58, 328, 211, 94, 288, 219, 139, 196, 310, 143, 198, 115]</t>
+          <t>[62, 32, 305, 212, 380, 377, 86, 296, 239]</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1070,30 +1070,30 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
-        <v>0.081111</v>
+        <v>0.099504</v>
       </c>
       <c r="F11" t="n">
-        <v>1923.068401</v>
+        <v>2453.67587</v>
       </c>
       <c r="G11" t="n">
-        <v>2121.472878</v>
+        <v>2173.679872</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>5.420089</v>
+        <v>6.402604</v>
       </c>
       <c r="K11" t="n">
-        <v>0.108282</v>
+        <v>0.110543</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[228, 22, 328, 198, 282, 219, 189, 111]</t>
+          <t>[359, 260, 53, 244, 113, 220]</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1124,21 +1124,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.079809</v>
+        <v>0.088736</v>
       </c>
       <c r="F12" t="n">
-        <v>1603.793969</v>
+        <v>1975.666718</v>
       </c>
       <c r="G12" t="n">
-        <v>2121.472878</v>
+        <v>2453.67587</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>5.604672</v>
+        <v>6.622765</v>
       </c>
       <c r="K12" t="n">
-        <v>0.10891</v>
+        <v>0.11265</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1162,15 +1162,15 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[272, 284, 140, 47, 26, 251, 173, 347, 209, 158, 218]</t>
+          <t>[128, 284, 153, 219, 126, 143, 312, 281, 323, 29, 311, 314, 356, 156, 149, 278, 216, 152, 303]</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1188,16 +1188,16 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
-        <v>0.080322</v>
+        <v>0.105409</v>
       </c>
       <c r="F13" t="n">
-        <v>2033.688423</v>
+        <v>1619.364253</v>
       </c>
       <c r="G13" t="n">
-        <v>2121.472878</v>
+        <v>2453.67587</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>5.484276</v>
+        <v>4.414641</v>
       </c>
       <c r="K13" t="n">
-        <v>0.108767</v>
+        <v>0.101558</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1221,15 +1221,15 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[130, 229, 118, 226, 289, 264, 298, 184, 213]</t>
+          <t>[221, 350, 55, 146, 74]</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1247,16 +1247,16 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08219899999999999</v>
+        <v>0.096225</v>
       </c>
       <c r="F14" t="n">
-        <v>1911.586413</v>
+        <v>2311.266902</v>
       </c>
       <c r="G14" t="n">
-        <v>2121.472878</v>
+        <v>2453.67587</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1267,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>5.440161</v>
+        <v>6.173369</v>
       </c>
       <c r="K14" t="n">
-        <v>0.107982</v>
+        <v>0.110348</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1280,15 +1280,15 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[180, 288, 87, 258, 219, 143, 222, 105]</t>
+          <t>[293, 233, 374, 62, 167, 38, 332, 296, 65]</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1306,16 +1306,16 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" t="n">
-        <v>0.090167</v>
+        <v>0.090909</v>
       </c>
       <c r="F15" t="n">
-        <v>2608.992409</v>
+        <v>2504.013375</v>
       </c>
       <c r="G15" t="n">
-        <v>2121.472878</v>
+        <v>2453.67587</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1326,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>5.982594</v>
+        <v>7.102189</v>
       </c>
       <c r="K15" t="n">
-        <v>0.10841</v>
+        <v>0.115188</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1339,15 +1339,15 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[348, 231, 168]</t>
+          <t>[372, 369, 375, 183, 336, 21, 36, 147, 264, 48, 240]</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1365,16 +1365,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16" t="n">
-        <v>0.086066</v>
+        <v>0.08574900000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>2055.634425</v>
+        <v>2245.28597</v>
       </c>
       <c r="G16" t="n">
-        <v>2608.992409</v>
+        <v>2504.013375</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>5.833203</v>
+        <v>7.226487</v>
       </c>
       <c r="K16" t="n">
-        <v>0.106113</v>
+        <v>0.117662</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1398,15 +1398,15 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[216, 90, 261, 99, 354, 144, 126, 201, 222]</t>
+          <t>[299, 29, 158, 218, 254, 110, 328, 251, 219, 31, 107]</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1424,16 +1424,16 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09759</v>
+        <v>0.09245</v>
       </c>
       <c r="F17" t="n">
-        <v>2983.504969</v>
+        <v>2589.647205</v>
       </c>
       <c r="G17" t="n">
-        <v>2608.992409</v>
+        <v>2504.013375</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>6.369457</v>
+        <v>7.207431</v>
       </c>
       <c r="K17" t="n">
-        <v>0.107591</v>
+        <v>0.115106</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1461,11 +1461,11 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[305, 377, 350, 230, 344, 41, 146, 221]</t>
+          <t>[66, 381, 384, 291, 249, 75]</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1483,30 +1483,30 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09578299999999999</v>
+        <v>0.09759</v>
       </c>
       <c r="F18" t="n">
-        <v>2402.556565</v>
+        <v>2908.43706</v>
       </c>
       <c r="G18" t="n">
-        <v>2983.504969</v>
+        <v>2589.647205</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>5.761829</v>
+        <v>7.566677</v>
       </c>
       <c r="K18" t="n">
-        <v>0.106544</v>
+        <v>0.113498</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[377, 305, 230, 116, 31, 206, 344, 137, 113, 146, 331, 236, 221, 359, 35]</t>
+          <t>[331, 220, 265, 253, 53]</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09365900000000001</v>
+        <v>0.090909</v>
       </c>
       <c r="F19" t="n">
-        <v>2201.155019</v>
+        <v>2692.991286</v>
       </c>
       <c r="G19" t="n">
-        <v>2983.504969</v>
+        <v>2908.43706</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1562,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>5.334777</v>
+        <v>7.048036</v>
       </c>
       <c r="K19" t="n">
-        <v>0.107437</v>
+        <v>0.113577</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1575,15 +1575,15 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[182, 269, 20, 179, 131, 365, 185, 329, 356]</t>
+          <t>[39, 297, 12, 273, 252, 327, 162, 0, 96, 177, 345, 267]</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1601,30 +1601,30 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09365900000000001</v>
+        <v>0.09128699999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2325.479458</v>
+        <v>5756.353907</v>
       </c>
       <c r="G20" t="n">
-        <v>2983.504969</v>
+        <v>2908.43706</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5.538859</v>
+        <v>8.836569000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.107601</v>
+        <v>0.124639</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1634,15 +1634,15 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[215, 59, 344, 368, 331, 265, 53, 176, 140, 236, 116, 74, 137, 244, 146, 272, 158]</t>
+          <t>[156, 330, 153, 269, 51, 279, 197, 126, 354]</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -1660,16 +1660,16 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E21" t="n">
-        <v>0.103142</v>
+        <v>0.08703900000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>2971.275433</v>
+        <v>4721.33886</v>
       </c>
       <c r="G21" t="n">
-        <v>2983.504969</v>
+        <v>5756.353907</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>5.839253</v>
+        <v>7.918695</v>
       </c>
       <c r="K21" t="n">
-        <v>0.117258</v>
+        <v>0.121843</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1693,11 +1693,11 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[244, 307, 232, 217, 274, 370, 55, 316]</t>
+          <t>[84, 159, 69, 258, 297, 312, 363, 51, 269, 87, 105]</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -1719,16 +1719,16 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09053600000000001</v>
+        <v>0.08980299999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>2530.27547</v>
+        <v>3669.662774</v>
       </c>
       <c r="G22" t="n">
-        <v>2983.504969</v>
+        <v>5756.353907</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>6.029009</v>
+        <v>6.886362</v>
       </c>
       <c r="K22" t="n">
-        <v>0.107851</v>
+        <v>0.12013</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1752,15 +1752,15 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[180, 297, 228, 24, 111, 198, 258, 328]</t>
+          <t>[168, 15, 183, 138, 117, 384, 141, 333, 231, 366, 6]</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -1778,30 +1778,30 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0.08574900000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>3201.82168</v>
+        <v>5676.164257</v>
       </c>
       <c r="G23" t="n">
-        <v>2983.504969</v>
+        <v>5756.353907</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>6.678561</v>
+        <v>8.371299</v>
       </c>
       <c r="K23" t="n">
-        <v>0.107466</v>
+        <v>0.124795</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1811,15 +1811,15 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[236]</t>
+          <t>[285, 192, 354, 177, 0, 12, 216, 222, 27]</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -1837,30 +1837,30 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E24" t="n">
-        <v>0.088045</v>
+        <v>0.092848</v>
       </c>
       <c r="F24" t="n">
-        <v>3478.336263</v>
+        <v>3501.641156</v>
       </c>
       <c r="G24" t="n">
-        <v>3201.82168</v>
+        <v>5756.353907</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.268434</v>
+        <v>6.830322</v>
       </c>
       <c r="K24" t="n">
-        <v>0.115638</v>
+        <v>0.111183</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[379, 43, 289, 121, 76, 175, 118, 226, 57, 325]</t>
+          <t>[102, 276, 261, 231, 6, 234, 15, 264]</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -1896,16 +1896,16 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E25" t="n">
-        <v>0.084215</v>
+        <v>0.089087</v>
       </c>
       <c r="F25" t="n">
-        <v>2483.529569</v>
+        <v>5294.467626</v>
       </c>
       <c r="G25" t="n">
-        <v>3478.336263</v>
+        <v>5756.353907</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>6.801295</v>
+        <v>8.645740999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.112332</v>
+        <v>0.12471</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1929,15 +1929,15 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[341, 89, 104, 269, 20, 278, 383, 131, 245, 179, 185, 323, 287]</t>
+          <t>[369, 261, 78, 147, 276, 144]</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -1955,30 +1955,30 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E26" t="n">
-        <v>0.101535</v>
+        <v>0.094072</v>
       </c>
       <c r="F26" t="n">
-        <v>3840.116176</v>
+        <v>5707.061281</v>
       </c>
       <c r="G26" t="n">
-        <v>3478.336263</v>
+        <v>5756.353907</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>7.449167</v>
+        <v>8.163220000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.117839</v>
+        <v>0.129312</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1988,15 +1988,15 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[55, 232, 226, 109]</t>
+          <t>[53, 137, 176, 331]</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -2014,30 +2014,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E27" t="n">
-        <v>0.096225</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>4102.02321</v>
+        <v>4121.214996</v>
       </c>
       <c r="G27" t="n">
-        <v>3840.116176</v>
+        <v>5756.353907</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>7.620339</v>
+        <v>7.591741</v>
       </c>
       <c r="K27" t="n">
-        <v>0.117947</v>
+        <v>0.119208</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2051,11 +2051,11 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[55, 190, 157, 53, 40, 259, 244, 235, 382, 142]</t>
+          <t>[36, 351, 264, 270, 183, 291, 384, 366, 369, 138, 375, 48, 141]</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2073,16 +2073,16 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E28" t="n">
-        <v>0.092848</v>
+        <v>0.09053600000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>3433.800779</v>
+        <v>4877.277773</v>
       </c>
       <c r="G28" t="n">
-        <v>4102.02321</v>
+        <v>5756.353907</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>7.81115</v>
+        <v>8.839872</v>
       </c>
       <c r="K28" t="n">
-        <v>0.117253</v>
+        <v>0.124682</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2106,15 +2106,15 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[323, 179, 131, 128, 284, 365, 185, 20, 197, 269, 152]</t>
+          <t>[195, 183, 147, 372, 381, 300, 144, 366, 108, 333, 141, 348, 270, 15]</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2132,16 +2132,16 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09167</v>
+        <v>0.09325</v>
       </c>
       <c r="F29" t="n">
-        <v>2848.861053</v>
+        <v>4494.261022</v>
       </c>
       <c r="G29" t="n">
-        <v>4102.02321</v>
+        <v>5756.353907</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2152,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>6.445373</v>
+        <v>8.502670999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.116527</v>
+        <v>0.12196</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2165,15 +2165,15 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[140, 359, 215, 253, 137, 220, 265, 53, 55, 244, 316, 248, 272]</t>
+          <t>[323, 209, 266, 328, 143, 314, 284, 281, 107]</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
@@ -2191,30 +2191,30 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E30" t="n">
-        <v>0.102598</v>
+        <v>0.09901500000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>4625.317155</v>
+        <v>5180.493918</v>
       </c>
       <c r="G30" t="n">
-        <v>4102.02321</v>
+        <v>5756.353907</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>8.056976000000001</v>
+        <v>8.19547</v>
       </c>
       <c r="K30" t="n">
-        <v>0.117978</v>
+        <v>0.113243</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[53, 221, 265, 244, 55, 386, 230]</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -2245,21 +2245,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E31" t="n">
-        <v>0.102062</v>
+        <v>0.08638700000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>3733.395216</v>
+        <v>4391.849683</v>
       </c>
       <c r="G31" t="n">
-        <v>4625.317155</v>
+        <v>5756.353907</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>7.210304</v>
+        <v>7.37867</v>
       </c>
       <c r="K31" t="n">
-        <v>0.112613</v>
+        <v>0.123043</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2283,15 +2283,15 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[197, 269, 156, 20, 185, 149, 266, 383]</t>
+          <t>[265, 331, 176, 359, 103, 253, 55, 317, 53, 248, 137]</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2309,16 +2309,16 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
-        <v>0.101535</v>
+        <v>0.08512599999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>3207.114051</v>
+        <v>3512.044222</v>
       </c>
       <c r="G32" t="n">
-        <v>4625.317155</v>
+        <v>5756.353907</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>7.013625</v>
+        <v>6.745463</v>
       </c>
       <c r="K32" t="n">
-        <v>0.112748</v>
+        <v>0.114629</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[89, 356, 149, 185, 182, 245, 20, 338, 266, 92, 131, 197, 329]</t>
+          <t>[131, 156, 185, 281, 311, 341, 99, 182, 323, 383, 179, 126, 312, 20, 197, 159]</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
@@ -2368,30 +2368,30 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E33" t="n">
-        <v>0.104257</v>
+        <v>0.089087</v>
       </c>
       <c r="F33" t="n">
-        <v>3976.296092</v>
+        <v>6420.324255</v>
       </c>
       <c r="G33" t="n">
-        <v>4625.317155</v>
+        <v>5756.353907</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>7.346414</v>
+        <v>8.642761</v>
       </c>
       <c r="K33" t="n">
-        <v>0.117303</v>
+        <v>0.127185</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2405,11 +2405,11 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[274, 217, 232, 316, 103, 109, 235]</t>
+          <t>[87, 279, 312, 216, 126, 330, 303, 150, 111, 285, 222]</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2427,16 +2427,16 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E34" t="n">
-        <v>0.106</v>
+        <v>0.086066</v>
       </c>
       <c r="F34" t="n">
-        <v>4345.74047</v>
+        <v>4592.174356</v>
       </c>
       <c r="G34" t="n">
-        <v>4625.317155</v>
+        <v>6420.324255</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>7.450277</v>
+        <v>7.472432</v>
       </c>
       <c r="K34" t="n">
-        <v>0.116304</v>
+        <v>0.121198</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2460,15 +2460,15 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[57]</t>
+          <t>[381, 366, 21, 204, 138, 234, 342, 183, 141]</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -2486,30 +2486,30 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104257</v>
+        <v>0.082761</v>
       </c>
       <c r="F35" t="n">
-        <v>3135.208848</v>
+        <v>7402.055474</v>
       </c>
       <c r="G35" t="n">
-        <v>4625.317155</v>
+        <v>6420.324255</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>6.991813</v>
+        <v>7.795108</v>
       </c>
       <c r="K35" t="n">
-        <v>0.107421</v>
+        <v>0.123725</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2519,11 +2519,11 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[316, 61, 313, 259, 334, 208, 103, 97, 265, 109, 53, 10]</t>
+          <t>[130, 357, 34, 198, 229, 58, 298, 340, 223, 228, 132, 226, 37, 328]</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -2545,16 +2545,16 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E36" t="n">
-        <v>0.099504</v>
+        <v>0.08451500000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>2958.398538</v>
+        <v>6439.935221</v>
       </c>
       <c r="G36" t="n">
-        <v>4625.317155</v>
+        <v>7402.055474</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>6.896252</v>
+        <v>7.059293</v>
       </c>
       <c r="K36" t="n">
-        <v>0.112318</v>
+        <v>0.121307</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2578,15 +2578,15 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[197, 281, 152, 341, 149, 179, 45, 20, 182, 284, 131]</t>
+          <t>[213, 143, 288, 105, 107, 198, 140, 31, 171, 330, 24, 57, 150, 228, 111, 72, 264]</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2604,16 +2604,16 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09449100000000001</v>
+        <v>0.07832600000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>4265.50021</v>
+        <v>5501.53712</v>
       </c>
       <c r="G37" t="n">
-        <v>4625.317155</v>
+        <v>7402.055474</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>7.45235</v>
+        <v>7.507246</v>
       </c>
       <c r="K37" t="n">
-        <v>0.118036</v>
+        <v>0.123812</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2637,15 +2637,15 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[199, 346, 82, 187, 283, 208, 13, 25, 262, 295, 91]</t>
+          <t>[79, 178, 91, 295, 325, 49, 289, 175, 199, 76, 1, 343]</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2663,16 +2663,16 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="E38" t="n">
-        <v>0.107833</v>
+        <v>0.08219899999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>4484.157622</v>
+        <v>7282.746493</v>
       </c>
       <c r="G38" t="n">
-        <v>4625.317155</v>
+        <v>7402.055474</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.60829</v>
+        <v>7.721846</v>
       </c>
       <c r="K38" t="n">
-        <v>0.112641</v>
+        <v>0.123614</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2696,15 +2696,15 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[269, 156, 383]</t>
+          <t>[87, 378, 159, 387, 279, 126, 99, 153]</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -2717,21 +2717,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E39" t="n">
-        <v>0.100504</v>
+        <v>0.077152</v>
       </c>
       <c r="F39" t="n">
-        <v>3207.107516</v>
+        <v>6479.04192</v>
       </c>
       <c r="G39" t="n">
-        <v>4625.317155</v>
+        <v>7402.055474</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>6.94903</v>
+        <v>7.314912</v>
       </c>
       <c r="K39" t="n">
-        <v>0.112427</v>
+        <v>0.123714</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2755,15 +2755,15 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[311, 179, 128, 266, 365, 131, 356, 210, 245, 20, 149]</t>
+          <t>[153, 261, 279, 21, 75, 33, 192, 369, 63, 354, 360, 276, 78, 390, 102, 303, 90, 225, 96, 27]</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1</v>
+        <v>0.081923</v>
       </c>
       <c r="F40" t="n">
-        <v>4755.690882</v>
+        <v>5874.792064</v>
       </c>
       <c r="G40" t="n">
-        <v>4625.317155</v>
+        <v>7402.055474</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>8.00257</v>
+        <v>6.320595</v>
       </c>
       <c r="K40" t="n">
-        <v>0.121663</v>
+        <v>0.12294</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2818,11 +2818,11 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[31, 127, 85, 328, 219, 151]</t>
+          <t>[338, 257, 98, 353, 221, 245]</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -2840,30 +2840,30 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E41" t="n">
-        <v>0.090167</v>
+        <v>0.08391800000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>3031.865796</v>
+        <v>7592.868973</v>
       </c>
       <c r="G41" t="n">
-        <v>4755.690882</v>
+        <v>7402.055474</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>6.851137</v>
+        <v>7.889726</v>
       </c>
       <c r="K41" t="n">
-        <v>0.117321</v>
+        <v>0.123735</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2873,15 +2873,15 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[116, 83, 173, 248, 59, 95, 113, 11, 290, 260, 140, 107, 368, 71]</t>
+          <t>[96, 120, 69, 42, 177, 84, 39, 255, 18]</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -2899,30 +2899,30 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09365900000000001</v>
+        <v>0.080322</v>
       </c>
       <c r="F42" t="n">
-        <v>4854.562732</v>
+        <v>5977.793337</v>
       </c>
       <c r="G42" t="n">
-        <v>4755.690882</v>
+        <v>7592.868973</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>7.529518</v>
+        <v>6.851185</v>
       </c>
       <c r="K42" t="n">
-        <v>0.121822</v>
+        <v>0.121004</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[325, 283, 76, 286, 199, 256, 82, 1, 175, 379, 208]</t>
+          <t>[180, 383, 24, 312, 356, 87, 105, 143, 110, 311, 107, 159, 111]</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -2958,30 +2958,30 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08481900000000001</v>
+        <v>0.088736</v>
       </c>
       <c r="F43" t="n">
-        <v>3341.520089</v>
+        <v>8621.090103</v>
       </c>
       <c r="G43" t="n">
-        <v>4854.562732</v>
+        <v>7592.868973</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>6.742411</v>
+        <v>8.395495</v>
       </c>
       <c r="K43" t="n">
-        <v>0.121516</v>
+        <v>0.123899</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2991,15 +2991,15 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[6, 102, 276, 117, 354, 144, 147, 195, 279, 15, 168, 240, 36, 303, 33]</t>
+          <t>[189, 162, 282, 219, 345]</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3017,16 +3017,16 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E44" t="n">
-        <v>0.090909</v>
+        <v>0.085436</v>
       </c>
       <c r="F44" t="n">
-        <v>4583.84209</v>
+        <v>6680.984989</v>
       </c>
       <c r="G44" t="n">
-        <v>4854.562732</v>
+        <v>8621.090103</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3037,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>7.053992</v>
+        <v>8.06978</v>
       </c>
       <c r="K44" t="n">
-        <v>0.122296</v>
+        <v>0.123304</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3050,15 +3050,15 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[190, 184, 238, 118, 76, 25, 379, 61, 325, 262]</t>
+          <t>[277, 118, 73, 160, 76, 238, 358, 67, 295, 79, 46, 142, 385, 115]</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
@@ -3076,30 +3076,30 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E45" t="n">
-        <v>0.090167</v>
+        <v>0.09805800000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>3302.184373</v>
+        <v>10454.005571</v>
       </c>
       <c r="G45" t="n">
-        <v>4854.562732</v>
+        <v>8621.090103</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>6.491111</v>
+        <v>9.230416999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.115659</v>
+        <v>0.123676</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3113,11 +3113,11 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[185, 128, 266, 245, 353, 227, 20, 269, 152, 179, 89, 224, 330]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -3135,30 +3135,30 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08944299999999999</v>
+        <v>0.101535</v>
       </c>
       <c r="F46" t="n">
-        <v>4352.39312</v>
+        <v>11197.937838</v>
       </c>
       <c r="G46" t="n">
-        <v>4854.562732</v>
+        <v>10454.005571</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>7.207347</v>
+        <v>9.550484000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0.121861</v>
+        <v>0.123657</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3172,11 +3172,11 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[154, 355, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -3189,35 +3189,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08512599999999999</v>
+        <v>0.104828</v>
       </c>
       <c r="F47" t="n">
-        <v>5870.526251</v>
+        <v>8770.267454000001</v>
       </c>
       <c r="G47" t="n">
-        <v>4854.562732</v>
+        <v>11197.937838</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>6.192211</v>
+        <v>8.467565</v>
       </c>
       <c r="K47" t="n">
-        <v>0.125721</v>
+        <v>0.112725</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3227,15 +3227,15 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[57, 228, 37, 226, 132, 72, 58, 367, 115, 375, 223, 213, 229, 121, 372]</t>
+          <t>[344, 53, 350, 253, 313, 97, 265, 55, 176, 10]</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -3253,16 +3253,16 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>0.079057</v>
+        <v>0.099504</v>
       </c>
       <c r="F48" t="n">
-        <v>3601.84934</v>
+        <v>9543.405255</v>
       </c>
       <c r="G48" t="n">
-        <v>5870.526251</v>
+        <v>11197.937838</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3273,10 +3273,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>5.080611</v>
+        <v>8.932376</v>
       </c>
       <c r="K48" t="n">
-        <v>0.113917</v>
+        <v>0.120159</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3286,15 +3286,15 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[305, 236, 248, 368, 137, 215, 350, 320, 230, 359, 74]</t>
+          <t>[288, 111, 198, 219, 330, 156]</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
@@ -3312,30 +3312,30 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E49" t="n">
-        <v>0.085436</v>
+        <v>0.101535</v>
       </c>
       <c r="F49" t="n">
-        <v>6558.408187</v>
+        <v>11151.220983</v>
       </c>
       <c r="G49" t="n">
-        <v>5870.526251</v>
+        <v>11197.937838</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>6.952996</v>
+        <v>9.521435</v>
       </c>
       <c r="K49" t="n">
-        <v>0.124668</v>
+        <v>0.123516</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3345,15 +3345,15 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[385, 73, 79, 358, 49, 310, 322]</t>
+          <t>[200, 392, 380, 239]</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
@@ -3371,16 +3371,16 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E50" t="n">
-        <v>0.083333</v>
+        <v>0.09365900000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>6101.34933</v>
+        <v>4429.730055</v>
       </c>
       <c r="G50" t="n">
-        <v>6558.408187</v>
+        <v>11197.937838</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3391,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>6.789127</v>
+        <v>5.278015</v>
       </c>
       <c r="K50" t="n">
-        <v>0.124712</v>
+        <v>0.111209</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3404,15 +3404,15 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[348, 261, 393]</t>
+          <t>[104, 131, 287, 77, 92, 221, 383, 197, 323, 284, 269, 155, 266, 311, 185, 278, 149]</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
@@ -3430,16 +3430,16 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.101015</v>
       </c>
       <c r="F51" t="n">
-        <v>5368.701383</v>
+        <v>11074.99916</v>
       </c>
       <c r="G51" t="n">
-        <v>6558.408187</v>
+        <v>11197.937838</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>5.847632</v>
+        <v>9.502889</v>
       </c>
       <c r="K51" t="n">
-        <v>0.124815</v>
+        <v>0.123543</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3463,15 +3463,15 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[175, 358, 289, 25, 367, 121, 118, 184, 40]</t>
+          <t>[392, 239, 86]</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
@@ -3489,30 +3489,30 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08770600000000001</v>
+        <v>0.105409</v>
       </c>
       <c r="F52" t="n">
-        <v>6833.82425</v>
+        <v>8455.336556</v>
       </c>
       <c r="G52" t="n">
-        <v>6558.408187</v>
+        <v>11197.937838</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>7.067593</v>
+        <v>8.208920000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>0.124518</v>
+        <v>0.112364</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3522,15 +3522,15 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[388, 349, 133, 178, 163, 16, 250]</t>
+          <t>[316, 313, 146, 220, 331, 320, 55, 74, 253, 217, 265]</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -3548,30 +3548,30 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08838799999999999</v>
+        <v>0.09245</v>
       </c>
       <c r="F53" t="n">
-        <v>6911.256294</v>
+        <v>9135.239831999999</v>
       </c>
       <c r="G53" t="n">
-        <v>6833.82425</v>
+        <v>11197.937838</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>7.1433</v>
+        <v>8.583548</v>
       </c>
       <c r="K53" t="n">
-        <v>0.124615</v>
+        <v>0.123272</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3581,15 +3581,15 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[186]</t>
+          <t>[338, 308, 287, 362, 92, 233, 119, 293, 224, 389, 167, 212, 332, 353]</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -3607,16 +3607,16 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.096674</v>
       </c>
       <c r="F54" t="n">
-        <v>5335.835053</v>
+        <v>9292.55581</v>
       </c>
       <c r="G54" t="n">
-        <v>6911.256294</v>
+        <v>11197.937838</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3627,10 +3627,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>6.656565</v>
+        <v>8.561019999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>0.12474</v>
+        <v>0.124194</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3640,15 +3640,15 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[369, 183, 15, 144, 75, 168, 261, 36, 393]</t>
+          <t>[219, 328, 107, 140, 116, 228, 110]</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -3666,16 +3666,16 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E55" t="n">
-        <v>0.085436</v>
+        <v>0.106</v>
       </c>
       <c r="F55" t="n">
-        <v>5300.985951</v>
+        <v>10243.32517</v>
       </c>
       <c r="G55" t="n">
-        <v>6911.256294</v>
+        <v>11197.937838</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3686,10 +3686,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>6.378734</v>
+        <v>8.350719</v>
       </c>
       <c r="K55" t="n">
-        <v>0.114572</v>
+        <v>0.123917</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[220, 316, 244, 55]</t>
+          <t>[344, 236, 137]</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -3720,21 +3720,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E56" t="n">
-        <v>0.083624</v>
+        <v>0.095346</v>
       </c>
       <c r="F56" t="n">
-        <v>5276.445459</v>
+        <v>8959.568678</v>
       </c>
       <c r="G56" t="n">
-        <v>6911.256294</v>
+        <v>11197.937838</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3745,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>6.820719</v>
+        <v>8.985537000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.124719</v>
+        <v>0.123704</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3758,15 +3758,15 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[342, 138, 366, 357, 384, 324, 30, 270, 273, 183, 93]</t>
+          <t>[364, 139, 79, 391, 367, 160, 49, 310, 277]</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -3784,30 +3784,30 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09449100000000001</v>
+        <v>0.08944299999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>7856.884405</v>
+        <v>7688.747787</v>
       </c>
       <c r="G57" t="n">
-        <v>6911.256294</v>
+        <v>11197.937838</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>7.602754</v>
+        <v>8.593954</v>
       </c>
       <c r="K57" t="n">
-        <v>0.12452</v>
+        <v>0.123803</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3817,15 +3817,15 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[295, 379, 76, 277, 283, 166, 385, 325, 175, 364, 289, 262, 367, 91]</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -3838,21 +3838,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09245</v>
+        <v>0.09365900000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>7575.535312</v>
+        <v>8774.968989999999</v>
       </c>
       <c r="G58" t="n">
-        <v>7856.884405</v>
+        <v>11197.937838</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3863,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>7.485288</v>
+        <v>8.91652</v>
       </c>
       <c r="K58" t="n">
-        <v>0.124618</v>
+        <v>0.125563</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3876,15 +3876,15 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[178, 121, 136, 49, 367, 277, 172, 229, 310, 343]</t>
+          <t>[328, 127, 163, 55, 139, 196, 53, 67, 22, 160, 352, 112, 331, 211]</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -3902,16 +3902,16 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E59" t="n">
-        <v>0.089087</v>
+        <v>0.09759</v>
       </c>
       <c r="F59" t="n">
-        <v>7002.897404</v>
+        <v>10330.334903</v>
       </c>
       <c r="G59" t="n">
-        <v>7856.884405</v>
+        <v>11197.937838</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3922,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>7.185168</v>
+        <v>9.181317</v>
       </c>
       <c r="K59" t="n">
-        <v>0.124547</v>
+        <v>0.123459</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3935,15 +3935,15 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[268, 325, 91, 187, 286, 1, 199]</t>
+          <t>[206, 296, 5, 257, 167, 332, 71, 389, 233, 305, 239]</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -3961,16 +3961,16 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08770600000000001</v>
+        <v>0.09712899999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>5879.997225</v>
+        <v>9623.110435000001</v>
       </c>
       <c r="G60" t="n">
-        <v>7856.884405</v>
+        <v>11197.937838</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3981,10 +3981,10 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>7.05563</v>
+        <v>9.104948</v>
       </c>
       <c r="K60" t="n">
-        <v>0.124508</v>
+        <v>0.122961</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3994,15 +3994,15 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[42, 3, 297, 189, 249, 171, 114, 180, 18, 273, 267]</t>
+          <t>[121, 118, 76, 379, 142]</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -4020,16 +4020,16 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E61" t="n">
-        <v>0.094072</v>
+        <v>0.09901500000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>7095.497758</v>
+        <v>10625.546988</v>
       </c>
       <c r="G61" t="n">
-        <v>7856.884405</v>
+        <v>11197.937838</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -4040,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>6.913872</v>
+        <v>9.300566999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>0.124117</v>
+        <v>0.123555</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -4053,15 +4053,15 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[152, 89, 356, 269, 185]</t>
+          <t>[62, 167, 293, 233, 389, 14, 296, 65]</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -4074,35 +4074,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E62" t="n">
-        <v>0.100504</v>
+        <v>0.102598</v>
       </c>
       <c r="F62" t="n">
-        <v>8881.465612</v>
+        <v>10600.244932</v>
       </c>
       <c r="G62" t="n">
-        <v>7856.884405</v>
+        <v>11197.937838</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>8.083216</v>
+        <v>9.126562</v>
       </c>
       <c r="K62" t="n">
-        <v>0.124481</v>
+        <v>0.123109</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -4112,15 +4112,15 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[213, 135, 72, 219, 324, 264, 342, 375, 198, 132, 328, 228]</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
@@ -4138,30 +4138,30 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E63" t="n">
-        <v>0.109764</v>
+        <v>0.094916</v>
       </c>
       <c r="F63" t="n">
-        <v>10565.601951</v>
+        <v>9788.721599</v>
       </c>
       <c r="G63" t="n">
-        <v>8881.465612</v>
+        <v>11197.937838</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>8.807159</v>
+        <v>8.943746000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0.124452</v>
+        <v>0.123477</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -4171,15 +4171,15 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[332, 32, 206, 167, 71, 38, 2, 5, 377, 119, 308, 353, 86, 338]</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -4203,10 +4203,10 @@
         <v>0.09805800000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>7777.196736</v>
+        <v>10551.336381</v>
       </c>
       <c r="G64" t="n">
-        <v>10565.601951</v>
+        <v>11197.937838</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -4217,10 +4217,10 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>6.93586</v>
+        <v>9.197599</v>
       </c>
       <c r="K64" t="n">
-        <v>0.129154</v>
+        <v>0.12627</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -4230,15 +4230,15 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[130, 73, 49, 229, 277, 271, 121, 79, 223, 46, 364, 385, 328]</t>
+          <t>[158, 140, 31]</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
@@ -4256,30 +4256,30 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" t="n">
-        <v>0.103142</v>
+        <v>0.104257</v>
       </c>
       <c r="F65" t="n">
-        <v>7977.121092</v>
+        <v>12367.003856</v>
       </c>
       <c r="G65" t="n">
-        <v>10565.601951</v>
+        <v>11197.937838</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>8.238664999999999</v>
+        <v>10.352595</v>
       </c>
       <c r="K65" t="n">
-        <v>0.114396</v>
+        <v>0.122695</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4289,15 +4289,15 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[55, 265, 109, 244, 253, 53, 217, 220, 316]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
@@ -4315,16 +4315,16 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E66" t="n">
-        <v>0.101015</v>
+        <v>0.11547</v>
       </c>
       <c r="F66" t="n">
-        <v>7637.31328</v>
+        <v>9936.288187</v>
       </c>
       <c r="G66" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -4335,10 +4335,10 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>7.836453</v>
+        <v>8.822372</v>
       </c>
       <c r="K66" t="n">
-        <v>0.118622</v>
+        <v>0.112172</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4352,11 +4352,11 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[331, 111, 150, 151, 198, 58, 328, 219, 244, 53, 223, 115, 143, 97, 55]</t>
+          <t>[220, 127, 265, 103, 313, 331, 55, 151, 106]</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
@@ -4374,16 +4374,16 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1</v>
+        <v>0.09578299999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>10562.508183</v>
+        <v>7522.045153</v>
       </c>
       <c r="G67" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4394,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>9.673689</v>
+        <v>7.790177</v>
       </c>
       <c r="K67" t="n">
-        <v>0.124315</v>
+        <v>0.113672</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4407,15 +4407,15 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[176, 386, 236, 35, 221, 380, 305, 62, 350]</t>
+          <t>[316, 242, 116, 103, 272, 368, 53, 55, 220, 265, 253, 95]</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -4433,16 +4433,16 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E68" t="n">
-        <v>0.109109</v>
+        <v>0.08980299999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>9895.284594000001</v>
+        <v>9236.353775</v>
       </c>
       <c r="G68" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>8.947296</v>
+        <v>8.960281</v>
       </c>
       <c r="K68" t="n">
-        <v>0.12382</v>
+        <v>0.122915</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4466,15 +4466,15 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[53, 111, 132, 267, 328, 171, 31, 3, 228, 180, 345]</t>
+          <t>[368, 389, 392, 95, 158, 68, 371, 59, 335, 122, 2, 173, 83, 308, 11, 200, 164, 32, 272, 374, 56]</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -4492,16 +4492,16 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>0.099504</v>
+        <v>0.1</v>
       </c>
       <c r="F69" t="n">
-        <v>6353.068464</v>
+        <v>8668.333203</v>
       </c>
       <c r="G69" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4512,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>6.66542</v>
+        <v>8.897995999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>0.117371</v>
+        <v>0.112651</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4525,15 +4525,15 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[223, 238, 76, 184, 61, 379, 328, 130, 226, 34, 118, 121, 190, 175, 259, 289]</t>
+          <t>[312, 210, 54, 387, 201, 45, 168, 126, 156, 117]</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -4551,16 +4551,16 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E70" t="n">
-        <v>0.114708</v>
+        <v>0.102062</v>
       </c>
       <c r="F70" t="n">
-        <v>9834.944299000001</v>
+        <v>8322.607468</v>
       </c>
       <c r="G70" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4571,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>8.034369999999999</v>
+        <v>8.400458</v>
       </c>
       <c r="K70" t="n">
-        <v>0.117756</v>
+        <v>0.110844</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4588,11 +4588,11 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[31, 226, 328, 130, 223]</t>
+          <t>[383, 185, 89, 197, 311, 131, 329, 245]</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -4605,21 +4605,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E71" t="n">
-        <v>0.096225</v>
+        <v>0.104828</v>
       </c>
       <c r="F71" t="n">
-        <v>5451.453938</v>
+        <v>11762.811348</v>
       </c>
       <c r="G71" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>6.216457</v>
+        <v>10.132034</v>
       </c>
       <c r="K71" t="n">
-        <v>0.113975</v>
+        <v>0.123252</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4643,15 +4643,15 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[190, 103, 118, 259, 61, 379, 232, 217, 55, 106]</t>
+          <t>[342, 351, 3, 375, 324, 328, 234, 372, 228, 357]</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -4669,16 +4669,16 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09578299999999999</v>
+        <v>0.102598</v>
       </c>
       <c r="F72" t="n">
-        <v>5425.629858</v>
+        <v>11274.321257</v>
       </c>
       <c r="G72" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4689,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>6.695164</v>
+        <v>9.64663</v>
       </c>
       <c r="K72" t="n">
-        <v>0.110383</v>
+        <v>0.122931</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4702,15 +4702,15 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[116, 8, 74, 236, 140, 377, 215, 230, 107, 221, 146, 359, 173, 320, 176, 113]</t>
+          <t>[213, 375, 328, 342, 366, 336, 132, 228, 264, 111, 219]</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -4728,16 +4728,16 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E73" t="n">
-        <v>0.110432</v>
+        <v>0.103142</v>
       </c>
       <c r="F73" t="n">
-        <v>9097.861546</v>
+        <v>12085.293837</v>
       </c>
       <c r="G73" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>8.378539999999999</v>
+        <v>10.232</v>
       </c>
       <c r="K73" t="n">
-        <v>0.118645</v>
+        <v>0.122624</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4761,15 +4761,15 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[105, 180, 151, 150, 31, 198, 288, 94, 328]</t>
+          <t>[167, 389, 353, 257, 332, 296, 17, 80, 338]</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -4787,30 +4787,30 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E74" t="n">
-        <v>0.106</v>
+        <v>0.107211</v>
       </c>
       <c r="F74" t="n">
-        <v>10205.737336</v>
+        <v>14104.829748</v>
       </c>
       <c r="G74" t="n">
-        <v>10565.601951</v>
+        <v>12367.003856</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>9.063828000000001</v>
+        <v>10.513261</v>
       </c>
       <c r="K74" t="n">
-        <v>0.123751</v>
+        <v>0.12795</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4820,15 +4820,15 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[179, 185, 269, 197, 131, 356, 89, 152]</t>
+          <t>[226, 57, 213, 228, 223]</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
@@ -4846,30 +4846,30 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101535</v>
+        <v>0.116248</v>
       </c>
       <c r="F75" t="n">
-        <v>7730.858091</v>
+        <v>18600.914793</v>
       </c>
       <c r="G75" t="n">
-        <v>10565.601951</v>
+        <v>14104.829748</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>8.167318</v>
+        <v>12.253908</v>
       </c>
       <c r="K75" t="n">
-        <v>0.11659</v>
+        <v>0.132465</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4883,11 +4883,11 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[331, 313, 97, 109, 253, 265, 112, 55, 244]</t>
+          <t>[230, 53, 386, 176, 350, 74, 221]</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -4905,16 +4905,16 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E76" t="n">
-        <v>0.106</v>
+        <v>0.114708</v>
       </c>
       <c r="F76" t="n">
-        <v>7769.769817</v>
+        <v>16087.681213</v>
       </c>
       <c r="G76" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4925,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>7.425801</v>
+        <v>11.203623</v>
       </c>
       <c r="K76" t="n">
-        <v>0.118073</v>
+        <v>0.129008</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4938,15 +4938,15 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[223, 229, 259, 130, 226, 118, 367, 76, 271, 340, 328, 184]</t>
+          <t>[328, 31, 53, 110, 107, 140]</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -4959,21 +4959,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" t="n">
-        <v>0.107833</v>
+        <v>0.108465</v>
       </c>
       <c r="F77" t="n">
-        <v>8044.694858</v>
+        <v>13826.811321</v>
       </c>
       <c r="G77" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4984,10 +4984,10 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>7.997858</v>
+        <v>11.422844</v>
       </c>
       <c r="K77" t="n">
-        <v>0.118696</v>
+        <v>0.12604</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4997,15 +4997,15 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[99, 216, 279, 339, 303, 126, 51]</t>
+          <t>[58, 289, 223, 298, 34, 229, 130, 259, 76, 40, 121, 118, 190]</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
@@ -5023,16 +5023,16 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09901500000000001</v>
+        <v>0.102598</v>
       </c>
       <c r="F78" t="n">
-        <v>7385.997862</v>
+        <v>8655.040369</v>
       </c>
       <c r="G78" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5043,10 +5043,10 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>7.892157</v>
+        <v>8.240081999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>0.124104</v>
+        <v>0.123599</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5056,15 +5056,15 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[33, 279, 204, 195, 369, 231, 237, 276, 15, 261, 6, 234]</t>
+          <t>[344, 260, 248, 95, 158, 236, 113, 143, 68, 110, 359, 242, 29, 176, 198, 347, 219]</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -5077,21 +5077,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09759</v>
+        <v>0.109109</v>
       </c>
       <c r="F79" t="n">
-        <v>8190.187505</v>
+        <v>11015.193131</v>
       </c>
       <c r="G79" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -5102,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>7.486316</v>
+        <v>8.676391000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0.127575</v>
+        <v>0.118949</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5115,15 +5115,15 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[31, 112, 163, 151, 337, 220, 64, 265, 53, 292, 352, 97, 70, 349]</t>
+          <t>[55, 125, 380, 350, 92, 362, 62, 344, 176]</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -5136,21 +5136,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E80" t="n">
-        <v>0.101015</v>
+        <v>0.104828</v>
       </c>
       <c r="F80" t="n">
-        <v>6585.030387</v>
+        <v>13012.792999</v>
       </c>
       <c r="G80" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5161,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>7.325832</v>
+        <v>11.382634</v>
       </c>
       <c r="K80" t="n">
-        <v>0.118674</v>
+        <v>0.126962</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -5174,15 +5174,15 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[207, 87, 378, 216, 84, 222, 180, 303, 105, 279, 69, 201]</t>
+          <t>[229, 67, 340, 169, 226, 160, 289, 139, 34, 85, 118, 79, 94, 228, 271, 22]</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -5200,16 +5200,16 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1066</v>
+        <v>0.105409</v>
       </c>
       <c r="F81" t="n">
-        <v>8008.542531</v>
+        <v>10978.810901</v>
       </c>
       <c r="G81" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5220,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>7.554061</v>
+        <v>9.410354</v>
       </c>
       <c r="K81" t="n">
-        <v>0.117823</v>
+        <v>0.131692</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -5233,15 +5233,15 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[197, 185, 182, 245, 128, 89, 156, 131, 383, 341, 179]</t>
+          <t>[116, 143, 158, 140, 209, 288, 107, 219, 53, 29, 329, 51, 311, 345, 152, 156, 24, 267, 171]</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -5259,16 +5259,16 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E82" t="n">
-        <v>0.107833</v>
+        <v>0.128037</v>
       </c>
       <c r="F82" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="G82" t="n">
-        <v>10565.601951</v>
+        <v>18600.914793</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5279,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>9.614995</v>
+        <v>13.424719</v>
       </c>
       <c r="K82" t="n">
-        <v>0.13044</v>
+        <v>0.1323</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5292,15 +5292,15 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[132, 213, 223, 57, 130, 229, 37]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
@@ -5318,16 +5318,16 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103695</v>
+        <v>0.107833</v>
       </c>
       <c r="F83" t="n">
-        <v>10808.706713</v>
+        <v>17314.764749</v>
       </c>
       <c r="G83" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5338,10 +5338,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>8.412190000000001</v>
+        <v>11.642779</v>
       </c>
       <c r="K83" t="n">
-        <v>0.133349</v>
+        <v>0.139904</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5351,15 +5351,15 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[228, 58, 79, 136, 223, 391, 310, 57, 328]</t>
+          <t>[259, 226, 379, 229, 238, 25, 37, 142, 184, 118, 367, 76]</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
@@ -5377,16 +5377,16 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E84" t="n">
-        <v>0.104257</v>
+        <v>0.11547</v>
       </c>
       <c r="F84" t="n">
-        <v>10544.571484</v>
+        <v>13603.784339</v>
       </c>
       <c r="G84" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5397,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>8.707806</v>
+        <v>11.004335</v>
       </c>
       <c r="K84" t="n">
-        <v>0.130308</v>
+        <v>0.119837</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5410,15 +5410,15 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[92, 185, 89, 269, 131, 329, 356]</t>
+          <t>[99, 168, 210, 201, 312, 156, 126, 60, 222, 159, 54, 378, 45]</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
@@ -5431,21 +5431,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104257</v>
+        <v>0.102062</v>
       </c>
       <c r="F85" t="n">
-        <v>11098.594368</v>
+        <v>13682.320876</v>
       </c>
       <c r="G85" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5456,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>9.159675999999999</v>
+        <v>10.26948</v>
       </c>
       <c r="K85" t="n">
-        <v>0.130009</v>
+        <v>0.133071</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -5469,15 +5469,15 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[202, 135, 198, 34, 282, 223, 328, 228, 58]</t>
+          <t>[155, 179, 101, 149, 356, 29, 104, 209, 284, 185, 365, 245, 182, 92, 44, 224, 278, 134]</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -5495,16 +5495,16 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105409</v>
+        <v>0.104828</v>
       </c>
       <c r="F86" t="n">
-        <v>9312.719879</v>
+        <v>12504.157403</v>
       </c>
       <c r="G86" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>8.746181999999999</v>
+        <v>10.819292</v>
       </c>
       <c r="K86" t="n">
-        <v>0.12348</v>
+        <v>0.133307</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5528,15 +5528,15 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[279, 378, 126, 99, 153, 339, 159, 387]</t>
+          <t>[309, 372, 252, 384, 345, 297, 66, 132, 18, 198, 255, 267, 39, 114, 327, 282, 162, 273]</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
@@ -5554,16 +5554,16 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E87" t="n">
-        <v>0.113228</v>
+        <v>0.117851</v>
       </c>
       <c r="F87" t="n">
-        <v>11838.251884</v>
+        <v>15014.15429</v>
       </c>
       <c r="G87" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5574,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>9.984168</v>
+        <v>11.794852</v>
       </c>
       <c r="K87" t="n">
-        <v>0.126274</v>
+        <v>0.125756</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[88, 34, 169, 67, 145, 328, 94, 79, 139]</t>
+          <t>[109, 379, 118, 382, 223, 100, 289, 103, 34, 40, 271, 61, 229]</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -5613,16 +5613,16 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E88" t="n">
-        <v>0.105409</v>
+        <v>0.118678</v>
       </c>
       <c r="F88" t="n">
-        <v>11216.493263</v>
+        <v>19087.686692</v>
       </c>
       <c r="G88" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5633,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>8.887812</v>
+        <v>12.182238</v>
       </c>
       <c r="K88" t="n">
-        <v>0.130116</v>
+        <v>0.132895</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -5646,15 +5646,15 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[197, 185, 269, 383, 311]</t>
+          <t>[328, 228, 219, 297, 111, 324, 258, 252, 18, 105, 81]</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
@@ -5672,16 +5672,16 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E89" t="n">
-        <v>0.103142</v>
+        <v>0.113228</v>
       </c>
       <c r="F89" t="n">
-        <v>9232.193815000001</v>
+        <v>9235.338556000001</v>
       </c>
       <c r="G89" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5692,10 +5692,10 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>8.448435</v>
+        <v>8.432615</v>
       </c>
       <c r="K89" t="n">
-        <v>0.124658</v>
+        <v>0.117895</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -5709,11 +5709,11 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[245, 185, 383, 131, 20, 311, 149, 156, 92, 365, 197, 287, 341]</t>
+          <t>[197, 314, 224, 209, 149, 245, 284, 311, 92, 338, 221, 182, 20, 329]</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
@@ -5731,16 +5731,16 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E90" t="n">
-        <v>0.104828</v>
+        <v>0.110432</v>
       </c>
       <c r="F90" t="n">
-        <v>11074.387216</v>
+        <v>14057.031776</v>
       </c>
       <c r="G90" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5751,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>9.584667</v>
+        <v>11.732686</v>
       </c>
       <c r="K90" t="n">
-        <v>0.127547</v>
+        <v>0.127256</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[126, 99, 159, 51]</t>
+          <t>[57, 25, 358, 121, 130, 259, 229, 118, 61, 115, 223, 40, 271, 76, 190, 364]</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
@@ -5790,16 +5790,16 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E91" t="n">
-        <v>0.112509</v>
+        <v>0.125</v>
       </c>
       <c r="F91" t="n">
-        <v>11445.847565</v>
+        <v>20447.598517</v>
       </c>
       <c r="G91" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5810,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>9.016384</v>
+        <v>13.489768</v>
       </c>
       <c r="K91" t="n">
-        <v>0.124443</v>
+        <v>0.127837</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -5823,15 +5823,15 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[132, 213]</t>
+          <t>[34, 367, 223, 289, 57, 271, 115, 226, 340]</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -5849,16 +5849,16 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E92" t="n">
-        <v>0.103695</v>
+        <v>0.132453</v>
       </c>
       <c r="F92" t="n">
-        <v>6910.886365</v>
+        <v>22184.059047</v>
       </c>
       <c r="G92" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5869,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>6.845528</v>
+        <v>13.679997</v>
       </c>
       <c r="K92" t="n">
-        <v>0.119072</v>
+        <v>0.126126</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -5882,15 +5882,15 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[108, 336, 372, 375, 366, 132, 234, 342, 48, 381, 246]</t>
+          <t>[130, 223, 58, 226, 142]</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -5908,16 +5908,16 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E93" t="n">
-        <v>0.096225</v>
+        <v>0.108465</v>
       </c>
       <c r="F93" t="n">
-        <v>9671.566236999999</v>
+        <v>8689.627544000001</v>
       </c>
       <c r="G93" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5928,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>8.578104</v>
+        <v>8.255678</v>
       </c>
       <c r="K93" t="n">
-        <v>0.129284</v>
+        <v>0.115748</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -5941,15 +5941,15 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[310, 112, 7, 250, 352, 331, 133, 13, 349, 31, 219, 337, 328, 301, 107, 64, 70]</t>
+          <t>[220, 55, 196, 64, 7, 244, 133, 127, 352, 250, 4, 361, 151, 313, 70]</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -5967,30 +5967,30 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E94" t="n">
-        <v>0.109764</v>
+        <v>0.103695</v>
       </c>
       <c r="F94" t="n">
-        <v>12475.128322</v>
+        <v>13867.800618</v>
       </c>
       <c r="G94" t="n">
-        <v>12156.507583</v>
+        <v>22416.82826</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>9.6821</v>
+        <v>10.658671</v>
       </c>
       <c r="K94" t="n">
-        <v>0.129466</v>
+        <v>0.129836</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -6004,11 +6004,11 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[132, 372, 57]</t>
+          <t>[356, 18, 111, 162, 288, 81, 294, 222, 219, 180, 27, 39, 311, 255, 207, 312, 297, 99]</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -6021,21 +6021,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E95" t="n">
-        <v>0.106</v>
+        <v>0.122169</v>
       </c>
       <c r="F95" t="n">
-        <v>9687.854114</v>
+        <v>13973.217936</v>
       </c>
       <c r="G95" t="n">
-        <v>12475.128322</v>
+        <v>22416.82826</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>9.06818</v>
+        <v>10.480294</v>
       </c>
       <c r="K95" t="n">
-        <v>0.117867</v>
+        <v>0.118458</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -6059,15 +6059,15 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[103, 55, 265, 220, 53, 253, 313]</t>
+          <t>[156, 383, 128, 329, 107, 314, 356, 269, 29]</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
@@ -6085,16 +6085,16 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E96" t="n">
-        <v>0.109109</v>
+        <v>0.118678</v>
       </c>
       <c r="F96" t="n">
-        <v>10311.396459</v>
+        <v>17054.794232</v>
       </c>
       <c r="G96" t="n">
-        <v>12475.128322</v>
+        <v>22416.82826</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -6105,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>8.784736000000001</v>
+        <v>12.602707</v>
       </c>
       <c r="K96" t="n">
-        <v>0.122315</v>
+        <v>0.126834</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -6122,11 +6122,11 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[210, 284, 128, 185, 269, 179, 197, 89, 152, 306]</t>
+          <t>[229, 34, 340, 223, 118, 58, 202, 226, 40, 367, 76, 37]</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
@@ -6144,16 +6144,16 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E97" t="n">
-        <v>0.103695</v>
+        <v>0.109109</v>
       </c>
       <c r="F97" t="n">
-        <v>9518.156278</v>
+        <v>15112.337252</v>
       </c>
       <c r="G97" t="n">
-        <v>12475.128322</v>
+        <v>22416.82826</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -6164,10 +6164,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>8.472969000000001</v>
+        <v>11.78075</v>
       </c>
       <c r="K97" t="n">
-        <v>0.123317</v>
+        <v>0.132767</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -6181,11 +6181,11 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>[281, 179, 20, 245, 287, 269, 197, 338]</t>
+          <t>[223, 226, 34, 196, 67, 139, 229, 151, 85, 37, 169, 57, 58]</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
@@ -6203,30 +6203,30 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E98" t="n">
-        <v>0.111111</v>
+        <v>0.113228</v>
       </c>
       <c r="F98" t="n">
-        <v>13051.250382</v>
+        <v>12193.571475</v>
       </c>
       <c r="G98" t="n">
-        <v>12475.128322</v>
+        <v>22416.82826</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>10.018038</v>
+        <v>9.670814999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>0.129317</v>
+        <v>0.124281</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -6236,15 +6236,15 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[67, 22, 160, 94]</t>
+          <t>[24, 158, 198, 359, 173, 219, 107, 272, 248, 29, 140, 176]</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
@@ -6262,16 +6262,16 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E99" t="n">
-        <v>0.102062</v>
+        <v>0.111111</v>
       </c>
       <c r="F99" t="n">
-        <v>9300.802803</v>
+        <v>8478.623847000001</v>
       </c>
       <c r="G99" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -6282,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>8.889312</v>
+        <v>7.84239</v>
       </c>
       <c r="K99" t="n">
-        <v>0.12711</v>
+        <v>0.115506</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -6295,15 +6295,15 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[53, 94, 127, 112, 214, 55, 313, 253, 316, 151, 331]</t>
+          <t>[140, 236, 107, 110, 74, 305, 198, 248, 344, 29, 272, 158, 328, 215, 137, 368]</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
@@ -6321,16 +6321,16 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E100" t="n">
-        <v>0.116248</v>
+        <v>0.110432</v>
       </c>
       <c r="F100" t="n">
-        <v>11031.331638</v>
+        <v>10579.791037</v>
       </c>
       <c r="G100" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -6341,10 +6341,10 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>8.681967</v>
+        <v>9.917878999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>0.118674</v>
+        <v>0.117739</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -6358,11 +6358,11 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[57, 226, 328, 223]</t>
+          <t>[329, 338, 311, 284, 185, 17, 152, 128, 323, 182, 20, 224, 266, 92, 245, 5]</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
@@ -6380,16 +6380,16 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E101" t="n">
-        <v>0.107833</v>
+        <v>0.117041</v>
       </c>
       <c r="F101" t="n">
-        <v>7820.604164</v>
+        <v>13487.753818</v>
       </c>
       <c r="G101" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -6400,10 +6400,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>7.292648</v>
+        <v>10.867549</v>
       </c>
       <c r="K101" t="n">
-        <v>0.118791</v>
+        <v>0.118695</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -6413,15 +6413,15 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[342, 231, 333, 375, 204]</t>
+          <t>[201, 387, 330, 210, 45, 231, 126, 60, 174, 312, 78]</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -6439,16 +6439,16 @@
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E102" t="n">
-        <v>0.111111</v>
+        <v>0.124035</v>
       </c>
       <c r="F102" t="n">
-        <v>9962.157557</v>
+        <v>18229.986383</v>
       </c>
       <c r="G102" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>9.338176000000001</v>
+        <v>12.144071</v>
       </c>
       <c r="K102" t="n">
-        <v>0.122762</v>
+        <v>0.127682</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>[216, 159, 354, 222, 261]</t>
+          <t>[111, 328, 150, 288, 198]</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
@@ -6498,16 +6498,16 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E103" t="n">
-        <v>0.102598</v>
+        <v>0.111111</v>
       </c>
       <c r="F103" t="n">
-        <v>9067.560837000001</v>
+        <v>14789.272206</v>
       </c>
       <c r="G103" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -6518,10 +6518,10 @@
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>8.580332</v>
+        <v>10.89767</v>
       </c>
       <c r="K103" t="n">
-        <v>0.122849</v>
+        <v>0.127607</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -6531,15 +6531,15 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[126, 207, 222, 201, 216, 87, 99]</t>
+          <t>[314, 329, 60, 105, 87, 311, 99, 111, 288, 383, 180, 312]</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
@@ -6557,16 +6557,16 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E104" t="n">
-        <v>0.107211</v>
+        <v>0.123091</v>
       </c>
       <c r="F104" t="n">
-        <v>10895.585403</v>
+        <v>18392.49339</v>
       </c>
       <c r="G104" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6577,10 +6577,10 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>9.133894</v>
+        <v>12.993242</v>
       </c>
       <c r="K104" t="n">
-        <v>0.124756</v>
+        <v>0.12694</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -6590,15 +6590,15 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[328, 223, 198, 219, 31, 111, 143]</t>
+          <t>[259, 79, 169, 22, 67, 88, 202, 37, 34, 226, 130]</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
@@ -6616,16 +6616,16 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E105" t="n">
-        <v>0.105409</v>
+        <v>0.121268</v>
       </c>
       <c r="F105" t="n">
-        <v>11231.344804</v>
+        <v>14189.097531</v>
       </c>
       <c r="G105" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>9.536934</v>
+        <v>11.271638</v>
       </c>
       <c r="K105" t="n">
-        <v>0.129303</v>
+        <v>0.118922</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -6649,15 +6649,15 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[284, 356, 128, 329, 209]</t>
+          <t>[312, 45, 330, 303, 279, 54, 99, 387, 159, 129, 153]</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
@@ -6675,16 +6675,16 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E106" t="n">
-        <v>0.107833</v>
+        <v>0.122169</v>
       </c>
       <c r="F106" t="n">
-        <v>10098.37849</v>
+        <v>20133.793726</v>
       </c>
       <c r="G106" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -6695,10 +6695,10 @@
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>9.033732000000001</v>
+        <v>13.132584</v>
       </c>
       <c r="K106" t="n">
-        <v>0.12268</v>
+        <v>0.130275</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -6708,11 +6708,11 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[387, 279, 51, 153, 312, 378, 321, 201]</t>
+          <t>[79, 57, 58, 223, 115, 226, 130]</t>
         </is>
       </c>
       <c r="Q106" t="n">
@@ -6734,30 +6734,30 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E107" t="n">
-        <v>0.112509</v>
+        <v>0.121268</v>
       </c>
       <c r="F107" t="n">
-        <v>13157.490962</v>
+        <v>16929.623583</v>
       </c>
       <c r="G107" t="n">
-        <v>13051.250382</v>
+        <v>22416.82826</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>9.669002000000001</v>
+        <v>11.913514</v>
       </c>
       <c r="K107" t="n">
-        <v>0.129229</v>
+        <v>0.126605</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -6767,15 +6767,15 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[269, 329, 311, 383]</t>
+          <t>[135, 330, 150, 288, 223, 228, 328, 198, 111]</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
@@ -6793,16 +6793,16 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E108" t="n">
-        <v>0.107833</v>
+        <v>0.117041</v>
       </c>
       <c r="F108" t="n">
-        <v>11606.656057</v>
+        <v>13333.135665</v>
       </c>
       <c r="G108" t="n">
-        <v>13157.490962</v>
+        <v>22416.82826</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6813,10 +6813,10 @@
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>9.405944999999999</v>
+        <v>10.887785</v>
       </c>
       <c r="K108" t="n">
-        <v>0.128164</v>
+        <v>0.118943</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -6826,15 +6826,15 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[345, 267, 282, 198, 288]</t>
+          <t>[222, 330, 105, 201, 150, 45, 87, 126, 99, 318, 153]</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
@@ -6852,16 +6852,16 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E109" t="n">
-        <v>0.120386</v>
+        <v>0.132453</v>
       </c>
       <c r="F109" t="n">
-        <v>15202.399577</v>
+        <v>25718.267218</v>
       </c>
       <c r="G109" t="n">
-        <v>13157.490962</v>
+        <v>22416.82826</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6872,10 +6872,10 @@
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>10.380653</v>
+        <v>14.914608</v>
       </c>
       <c r="K109" t="n">
-        <v>0.128037</v>
+        <v>0.132067</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -6885,15 +6885,15 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[328, 22, 223, 57]</t>
+          <t>[340]</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
@@ -6911,16 +6911,16 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E110" t="n">
-        <v>0.111111</v>
+        <v>0.124035</v>
       </c>
       <c r="F110" t="n">
-        <v>12776.89944</v>
+        <v>15967.176287</v>
       </c>
       <c r="G110" t="n">
-        <v>15202.399577</v>
+        <v>25718.267218</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6931,10 +6931,10 @@
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>9.547269999999999</v>
+        <v>12.752123</v>
       </c>
       <c r="K110" t="n">
-        <v>0.126767</v>
+        <v>0.119269</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>[231, 393, 117, 348, 15]</t>
+          <t>[99, 168, 312, 279, 231, 306, 153, 78, 348, 156]</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
@@ -6970,30 +6970,30 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E111" t="n">
-        <v>0.124035</v>
+        <v>0.117041</v>
       </c>
       <c r="F111" t="n">
-        <v>15813.221202</v>
+        <v>17685.168757</v>
       </c>
       <c r="G111" t="n">
-        <v>15202.399577</v>
+        <v>25718.267218</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>10.56029</v>
+        <v>13.133189</v>
       </c>
       <c r="K111" t="n">
-        <v>0.127065</v>
+        <v>0.131949</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -7003,15 +7003,15 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[219]</t>
+          <t>[246, 273, 66, 357, 249, 351, 381, 138, 375]</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
@@ -7029,16 +7029,16 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E112" t="n">
-        <v>0.119523</v>
+        <v>0.124035</v>
       </c>
       <c r="F112" t="n">
-        <v>14885.794921</v>
+        <v>19839.897574</v>
       </c>
       <c r="G112" t="n">
-        <v>15813.221202</v>
+        <v>25718.267218</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -7049,10 +7049,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>10.343527</v>
+        <v>12.924497</v>
       </c>
       <c r="K112" t="n">
-        <v>0.126693</v>
+        <v>0.132527</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -7062,15 +7062,15 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[143, 228, 57, 145, 328, 107, 219]</t>
+          <t>[34, 202, 67, 298, 57, 130, 115, 58, 271]</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
@@ -7083,21 +7083,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E113" t="n">
-        <v>0.116248</v>
+        <v>0.125988</v>
       </c>
       <c r="F113" t="n">
-        <v>12280.686744</v>
+        <v>19217.857551</v>
       </c>
       <c r="G113" t="n">
-        <v>15813.221202</v>
+        <v>25718.267218</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -7108,10 +7108,10 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>9.964919999999999</v>
+        <v>12.993471</v>
       </c>
       <c r="K113" t="n">
-        <v>0.116995</v>
+        <v>0.126642</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -7121,15 +7121,15 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[55, 53, 106, 103, 244, 316, 253, 217]</t>
+          <t>[130, 289, 109, 229, 271, 226, 223, 259, 340]</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
@@ -7142,35 +7142,35 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CORRECTING</t>
+          <t>SIMPLE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E114" t="n">
-        <v>0.136083</v>
+        <v>0.122169</v>
       </c>
       <c r="F114" t="n">
-        <v>22472.900292</v>
+        <v>19742.163637</v>
       </c>
       <c r="G114" t="n">
-        <v>15813.221202</v>
+        <v>25718.267218</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>12.783199</v>
+        <v>12.836688</v>
       </c>
       <c r="K114" t="n">
-        <v>0.13275</v>
+        <v>0.128801</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -7180,15 +7180,15 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>[143, 328, 223, 219]</t>
+          <t>[311, 314, 111, 143]</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
@@ -7206,30 +7206,30 @@
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E115" t="n">
-        <v>0.158114</v>
+        <v>0.124035</v>
       </c>
       <c r="F115" t="n">
-        <v>28000.611309</v>
+        <v>17805.251427</v>
       </c>
       <c r="G115" t="n">
-        <v>22472.900292</v>
+        <v>25718.267218</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>ACCEPTED</t>
+          <t>CANCELED</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>14.51053</v>
+        <v>13.045601</v>
       </c>
       <c r="K115" t="n">
-        <v>0.125412</v>
+        <v>0.126184</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -7243,11 +7243,11 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[190, 223, 34, 289, 169, 229, 259, 277, 367, 118]</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
@@ -7265,16 +7265,16 @@
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E116" t="n">
-        <v>0.132453</v>
+        <v>0.127</v>
       </c>
       <c r="F116" t="n">
-        <v>15006.175057</v>
+        <v>25640.056575</v>
       </c>
       <c r="G116" t="n">
-        <v>28000.611309</v>
+        <v>25718.267218</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -7285,10 +7285,10 @@
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>10.224968</v>
+        <v>15.247779</v>
       </c>
       <c r="K116" t="n">
-        <v>0.119366</v>
+        <v>0.138516</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -7298,15 +7298,15 @@
         </is>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>[357, 252, 375, 213, 132, 57]</t>
+          <t>[37, 213, 34, 223, 289, 58, 57, 271, 130]</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
@@ -7324,16 +7324,16 @@
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E117" t="n">
-        <v>0.149071</v>
+        <v>0.108465</v>
       </c>
       <c r="F117" t="n">
-        <v>21414.723335</v>
+        <v>14169.083374</v>
       </c>
       <c r="G117" t="n">
-        <v>28000.611309</v>
+        <v>25718.267218</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -7344,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>13.467361</v>
+        <v>11.781957</v>
       </c>
       <c r="K117" t="n">
-        <v>0.114866</v>
+        <v>0.132306</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -7357,15 +7357,15 @@
         </is>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>[265, 220, 53, 55, 253, 313]</t>
+          <t>[272, 209, 24, 345, 140, 180, 143, 251, 324, 219, 47, 31, 29, 189, 173, 158, 282, 288, 242]</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
@@ -7383,16 +7383,16 @@
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E118" t="n">
-        <v>0.144338</v>
+        <v>0.117041</v>
       </c>
       <c r="F118" t="n">
-        <v>20219.095904</v>
+        <v>12669.154043</v>
       </c>
       <c r="G118" t="n">
-        <v>28000.611309</v>
+        <v>25718.267218</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -7403,10 +7403,10 @@
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>12.211225</v>
+        <v>9.981024</v>
       </c>
       <c r="K118" t="n">
-        <v>0.120703</v>
+        <v>0.117159</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
@@ -7416,15 +7416,15 @@
         </is>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>[151, 31, 107, 198, 219, 328]</t>
+          <t>[116, 350, 74, 377, 236, 359, 140, 176, 31]</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
@@ -7442,16 +7442,16 @@
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E119" t="n">
-        <v>0.145865</v>
+        <v>0.130189</v>
       </c>
       <c r="F119" t="n">
-        <v>23175.743829</v>
+        <v>22698.280409</v>
       </c>
       <c r="G119" t="n">
-        <v>28000.611309</v>
+        <v>25718.267218</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -7462,10 +7462,10 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>13.414073</v>
+        <v>13.700992</v>
       </c>
       <c r="K119" t="n">
-        <v>0.125529</v>
+        <v>0.131134</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
@@ -7475,11 +7475,11 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>[149, 128, 185, 20]</t>
+          <t>[143, 219, 328, 107]</t>
         </is>
       </c>
       <c r="Q119" t="n">
@@ -7501,30 +7501,30 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E120" t="n">
-        <v>0.140028</v>
+        <v>0.138675</v>
       </c>
       <c r="F120" t="n">
-        <v>20445.663453</v>
+        <v>28170.790373</v>
       </c>
       <c r="G120" t="n">
-        <v>28000.611309</v>
+        <v>25718.267218</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>12.841123</v>
+        <v>15.590349</v>
       </c>
       <c r="K120" t="n">
-        <v>0.125231</v>
+        <v>0.132182</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
@@ -7534,15 +7534,15 @@
         </is>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>[284, 152, 20, 134, 149, 197]</t>
+          <t>[23]</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
@@ -7560,16 +7560,16 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E121" t="n">
-        <v>0.140028</v>
+        <v>0.127</v>
       </c>
       <c r="F121" t="n">
-        <v>23187.113288</v>
+        <v>17344.490005</v>
       </c>
       <c r="G121" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -7580,10 +7580,10 @@
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>13.114562</v>
+        <v>12.287968</v>
       </c>
       <c r="K121" t="n">
-        <v>0.129727</v>
+        <v>0.125894</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -7593,15 +7593,15 @@
         </is>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>[45, 269, 201, 156, 54, 311, 51]</t>
+          <t>[288, 189, 282, 116, 24, 162, 294, 219, 81, 107, 140, 53, 267]</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
@@ -7619,16 +7619,16 @@
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E122" t="n">
-        <v>0.133631</v>
+        <v>0.1066</v>
       </c>
       <c r="F122" t="n">
-        <v>15726.123009</v>
+        <v>11189.123381</v>
       </c>
       <c r="G122" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -7639,10 +7639,10 @@
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>11.441456</v>
+        <v>10.221728</v>
       </c>
       <c r="K122" t="n">
-        <v>0.113387</v>
+        <v>0.127002</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -7652,15 +7652,15 @@
         </is>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>[230, 116, 359, 176, 221, 98, 74, 317, 344]</t>
+          <t>[231, 333, 6, 372, 168, 375, 183, 291, 351, 366, 243, 132, 21, 342, 75, 348, 36, 117, 33, 165]</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
@@ -7678,16 +7678,16 @@
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E123" t="n">
-        <v>0.141421</v>
+        <v>0.124035</v>
       </c>
       <c r="F123" t="n">
-        <v>24302.525098</v>
+        <v>21476.561867</v>
       </c>
       <c r="G123" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -7698,10 +7698,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>13.61273</v>
+        <v>13.660076</v>
       </c>
       <c r="K123" t="n">
-        <v>0.13074</v>
+        <v>0.129939</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -7711,15 +7711,15 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>[331, 53, 127]</t>
+          <t>[330, 150, 311, 105, 87, 312, 60]</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
@@ -7737,16 +7737,16 @@
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E124" t="n">
-        <v>0.140028</v>
+        <v>0.111111</v>
       </c>
       <c r="F124" t="n">
-        <v>21472.427692</v>
+        <v>11283.196322</v>
       </c>
       <c r="G124" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -7757,10 +7757,10 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>13.001511</v>
+        <v>10.16342</v>
       </c>
       <c r="K124" t="n">
-        <v>0.124071</v>
+        <v>0.122165</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -7770,15 +7770,15 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>[265, 244, 55, 253, 53]</t>
+          <t>[347, 194, 29, 110, 317, 111, 24, 143, 95, 251, 272, 248, 158, 180, 176, 173, 198, 282, 359]</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
@@ -7791,21 +7791,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SIMPLE</t>
+          <t>CORRECTING</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E125" t="n">
-        <v>0.140028</v>
+        <v>0.122169</v>
       </c>
       <c r="F125" t="n">
-        <v>22936.317133</v>
+        <v>13997.980493</v>
       </c>
       <c r="G125" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -7816,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>13.475138</v>
+        <v>11.647241</v>
       </c>
       <c r="K125" t="n">
-        <v>0.125878</v>
+        <v>0.117179</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -7829,15 +7829,15 @@
         </is>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>[143, 107, 150, 198, 311, 329, 288, 60, 111]</t>
+          <t>[224, 182, 185, 245, 92, 149, 29, 356, 314, 338, 311, 266, 20, 143]</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr"/>
@@ -7855,16 +7855,16 @@
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E126" t="n">
-        <v>0.156174</v>
+        <v>0.128037</v>
       </c>
       <c r="F126" t="n">
-        <v>23328.757757</v>
+        <v>16674.469395</v>
       </c>
       <c r="G126" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -7875,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>13.55959</v>
+        <v>12.545606</v>
       </c>
       <c r="K126" t="n">
-        <v>0.114096</v>
+        <v>0.117102</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
@@ -7892,11 +7892,11 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>[55]</t>
+          <t>[111, 153, 60, 87, 126, 312, 54, 387, 378, 45, 150]</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
@@ -7914,16 +7914,16 @@
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E127" t="n">
-        <v>0.141421</v>
+        <v>0.120386</v>
       </c>
       <c r="F127" t="n">
-        <v>17967.781393</v>
+        <v>18838.464588</v>
       </c>
       <c r="G127" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -7934,10 +7934,10 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>11.911318</v>
+        <v>12.99324</v>
       </c>
       <c r="K127" t="n">
-        <v>0.11397</v>
+        <v>0.130089</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -7947,11 +7947,11 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>[103, 217, 253, 53, 31, 55, 376]</t>
+          <t>[152, 194, 209, 251, 29, 314, 143, 356]</t>
         </is>
       </c>
       <c r="Q127" t="n">
@@ -7973,16 +7973,16 @@
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E128" t="n">
-        <v>0.144338</v>
+        <v>0.131306</v>
       </c>
       <c r="F128" t="n">
-        <v>22290.164338</v>
+        <v>17508.141874</v>
       </c>
       <c r="G128" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -7993,10 +7993,10 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>12.874355</v>
+        <v>13.0401</v>
       </c>
       <c r="K128" t="n">
-        <v>0.125219</v>
+        <v>0.1181</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -8006,15 +8006,15 @@
         </is>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>[53, 107, 288, 328, 31, 219, 331]</t>
+          <t>[185, 125, 92, 362, 356, 311, 8, 182, 197, 98, 245]</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
@@ -8032,16 +8032,16 @@
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E129" t="n">
-        <v>0.160128</v>
+        <v>0.144338</v>
       </c>
       <c r="F129" t="n">
-        <v>32250.512346</v>
+        <v>29187.555833</v>
       </c>
       <c r="G129" t="n">
-        <v>28000.611309</v>
+        <v>28170.790373</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -8052,10 +8052,10 @@
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>15.928723</v>
+        <v>16.664227</v>
       </c>
       <c r="K129" t="n">
-        <v>0.126941</v>
+        <v>0.127651</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -8069,11 +8069,11 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>[111, 156, 107, 383, 311, 219]</t>
+          <t>[330, 150, 312, 60, 269, 51]</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
@@ -8091,16 +8091,16 @@
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E130" t="n">
-        <v>0.136083</v>
+        <v>0.123091</v>
       </c>
       <c r="F130" t="n">
-        <v>19405.269294</v>
+        <v>15408.455744</v>
       </c>
       <c r="G130" t="n">
-        <v>32250.512346</v>
+        <v>29187.555833</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -8111,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>12.373837</v>
+        <v>12.525878</v>
       </c>
       <c r="K130" t="n">
-        <v>0.122119</v>
+        <v>0.118991</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -8124,15 +8124,15 @@
         </is>
       </c>
       <c r="O130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>[248, 107, 137, 272, 359, 140]</t>
+          <t>[276, 129, 45, 378, 126, 153, 261, 348, 387, 78, 210]</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
@@ -8150,16 +8150,16 @@
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E131" t="n">
-        <v>0.141421</v>
+        <v>0.136083</v>
       </c>
       <c r="F131" t="n">
-        <v>24425.466496</v>
+        <v>21611.802685</v>
       </c>
       <c r="G131" t="n">
-        <v>32250.512346</v>
+        <v>29187.555833</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -8170,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>14.076503</v>
+        <v>14.077289</v>
       </c>
       <c r="K131" t="n">
-        <v>0.127059</v>
+        <v>0.123486</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -8183,15 +8183,15 @@
         </is>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>[266, 245, 287, 197]</t>
+          <t>[143, 107, 272, 328, 53, 314, 140, 116]</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
@@ -8209,16 +8209,16 @@
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E132" t="n">
-        <v>0.140028</v>
+        <v>0.117851</v>
       </c>
       <c r="F132" t="n">
-        <v>23501.662491</v>
+        <v>17119.643806</v>
       </c>
       <c r="G132" t="n">
-        <v>32250.512346</v>
+        <v>29187.555833</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -8229,10 +8229,10 @@
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>14.032283</v>
+        <v>13.647205</v>
       </c>
       <c r="K132" t="n">
-        <v>0.126642</v>
+        <v>0.127868</v>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -8242,15 +8242,15 @@
         </is>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>[51, 306, 126, 201, 210, 45, 54, 174]</t>
+          <t>[114, 66, 351, 357, 141, 375, 342, 183, 273, 324]</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
@@ -8268,30 +8268,30 @@
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E133" t="n">
-        <v>0.154303</v>
+        <v>0.149071</v>
       </c>
       <c r="F133" t="n">
-        <v>28028.121801</v>
+        <v>36239.65018</v>
       </c>
       <c r="G133" t="n">
-        <v>32250.512346</v>
+        <v>29187.555833</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>ACCEPTED</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>14.714643</v>
+        <v>18.537757</v>
       </c>
       <c r="K133" t="n">
-        <v>0.12586</v>
+        <v>0.135763</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -8301,15 +8301,15 @@
         </is>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[107, 356, 219, 311, 143]</t>
+          <t>[31, 328]</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
@@ -8327,16 +8327,16 @@
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E134" t="n">
-        <v>0.149071</v>
+        <v>0.156174</v>
       </c>
       <c r="F134" t="n">
-        <v>26306.662915</v>
+        <v>34255.931836</v>
       </c>
       <c r="G134" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -8347,10 +8347,10 @@
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>14.50981</v>
+        <v>17.541103</v>
       </c>
       <c r="K134" t="n">
-        <v>0.125899</v>
+        <v>0.125541</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -8360,15 +8360,15 @@
         </is>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>[105, 87, 330, 150]</t>
+          <t>[269, 311, 156]</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
@@ -8386,16 +8386,16 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E135" t="n">
-        <v>0.149071</v>
+        <v>0.132453</v>
       </c>
       <c r="F135" t="n">
-        <v>23893.456847</v>
+        <v>26962.187053</v>
       </c>
       <c r="G135" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -8406,10 +8406,10 @@
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>13.494208</v>
+        <v>16.36442</v>
       </c>
       <c r="K135" t="n">
-        <v>0.123048</v>
+        <v>0.135835</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -8419,15 +8419,15 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>[328, 107, 311, 156, 29, 143, 314, 94]</t>
+          <t>[288, 180, 105, 228, 111, 297, 198, 24]</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
@@ -8445,16 +8445,16 @@
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E136" t="n">
-        <v>0.147442</v>
+        <v>0.129099</v>
       </c>
       <c r="F136" t="n">
-        <v>25078.584656</v>
+        <v>22845.654322</v>
       </c>
       <c r="G136" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -8465,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>14.315389</v>
+        <v>14.925106</v>
       </c>
       <c r="K136" t="n">
-        <v>0.125849</v>
+        <v>0.130922</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -8482,11 +8482,11 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>[69, 150, 87, 159, 312]</t>
+          <t>[220, 10, 331, 244, 313, 97, 4]</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
@@ -8504,16 +8504,16 @@
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E137" t="n">
-        <v>0.147442</v>
+        <v>0.133631</v>
       </c>
       <c r="F137" t="n">
-        <v>18865.264169</v>
+        <v>26216.65662</v>
       </c>
       <c r="G137" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -8524,10 +8524,10 @@
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>11.357539</v>
+        <v>15.949096</v>
       </c>
       <c r="K137" t="n">
-        <v>0.116692</v>
+        <v>0.133654</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -8537,15 +8537,15 @@
         </is>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>[37, 142, 226, 340]</t>
+          <t>[97, 313, 265, 220, 4, 214]</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
@@ -8563,16 +8563,16 @@
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E138" t="n">
-        <v>0.150756</v>
+        <v>0.132453</v>
       </c>
       <c r="F138" t="n">
-        <v>26549.315572</v>
+        <v>25835.463874</v>
       </c>
       <c r="G138" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -8583,10 +8583,10 @@
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>14.578862</v>
+        <v>15.95211</v>
       </c>
       <c r="K138" t="n">
-        <v>0.125085</v>
+        <v>0.131774</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -8596,15 +8596,15 @@
         </is>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>[311, 152, 383, 329, 356]</t>
+          <t>[211, 151, 196, 219, 328]</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
@@ -8622,16 +8622,16 @@
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E139" t="n">
-        <v>0.13484</v>
+        <v>0.149071</v>
       </c>
       <c r="F139" t="n">
-        <v>18934.017159</v>
+        <v>31214.055338</v>
       </c>
       <c r="G139" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -8642,10 +8642,10 @@
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>12.774135</v>
+        <v>16.536147</v>
       </c>
       <c r="K139" t="n">
-        <v>0.116586</v>
+        <v>0.127127</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -8655,15 +8655,15 @@
         </is>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>[259, 232, 109, 253, 55, 106, 217]</t>
+          <t>[383, 330, 60, 269, 156]</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
@@ -8681,16 +8681,16 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E140" t="n">
-        <v>0.144338</v>
+        <v>0.132453</v>
       </c>
       <c r="F140" t="n">
-        <v>23983.352789</v>
+        <v>24405.787036</v>
       </c>
       <c r="G140" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -8701,10 +8701,10 @@
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>14.557615</v>
+        <v>15.424455</v>
       </c>
       <c r="K140" t="n">
-        <v>0.11824</v>
+        <v>0.128575</v>
       </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
@@ -8714,15 +8714,15 @@
         </is>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>[109, 253, 220, 103, 55, 53]</t>
+          <t>[351, 234, 264, 375, 336]</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
@@ -8740,16 +8740,16 @@
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E141" t="n">
-        <v>0.150756</v>
+        <v>0.128037</v>
       </c>
       <c r="F141" t="n">
-        <v>26115.757751</v>
+        <v>20182.214001</v>
       </c>
       <c r="G141" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -8760,10 +8760,10 @@
         <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>14.09548</v>
+        <v>14.213563</v>
       </c>
       <c r="K141" t="n">
-        <v>0.127261</v>
+        <v>0.124908</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -8773,15 +8773,15 @@
         </is>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>[185, 143, 311, 356]</t>
+          <t>[231, 126, 378, 387, 153, 54, 168, 210]</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
@@ -8799,16 +8799,16 @@
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E142" t="n">
-        <v>0.142857</v>
+        <v>0.140028</v>
       </c>
       <c r="F142" t="n">
-        <v>24747.419374</v>
+        <v>24118.314976</v>
       </c>
       <c r="G142" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -8819,10 +8819,10 @@
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>14.120819</v>
+        <v>14.840727</v>
       </c>
       <c r="K142" t="n">
-        <v>0.12704</v>
+        <v>0.125029</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -8832,15 +8832,15 @@
         </is>
       </c>
       <c r="O142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>[197, 179, 365, 245]</t>
+          <t>[359, 344, 176, 116]</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
@@ -8858,16 +8858,16 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E143" t="n">
-        <v>0.13484</v>
+        <v>0.144338</v>
       </c>
       <c r="F143" t="n">
-        <v>16895.594334</v>
+        <v>32750.654352</v>
       </c>
       <c r="G143" t="n">
-        <v>32250.512346</v>
+        <v>36239.65018</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>11.257509</v>
+        <v>17.988162</v>
       </c>
       <c r="K143" t="n">
-        <v>0.118921</v>
+        <v>0.133671</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -8895,17 +8895,1787 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>[252, 213, 135, 345, 228, 189, 267, 57]</t>
+          <t>[198, 111, 219]</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SIMPLE</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>56</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.133631</v>
+      </c>
+      <c r="F144" t="n">
+        <v>26161.066084</v>
+      </c>
+      <c r="G144" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>16.191929</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.133321</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[152, 29, 314, 311, 356, 107]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>8</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>49</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21547.894834</v>
+      </c>
+      <c r="G145" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13.801183</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.116806</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[344, 53, 176, 74]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>54</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.136083</v>
+      </c>
+      <c r="F146" t="n">
+        <v>24107.23157</v>
+      </c>
+      <c r="G146" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14.650806</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.130253</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[53, 31, 110, 107, 140]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>5</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>46</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.147442</v>
+      </c>
+      <c r="F147" t="n">
+        <v>27191.457131</v>
+      </c>
+      <c r="G147" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15.59833</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.12242</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[311, 356, 383, 269, 143, 29]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>12</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>65</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.124035</v>
+      </c>
+      <c r="F148" t="n">
+        <v>23444.644535</v>
+      </c>
+      <c r="G148" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15.391407</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.132203</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[289, 228, 277, 49, 223, 226, 364, 367, 57, 229]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>12</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>42</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.154303</v>
+      </c>
+      <c r="F149" t="n">
+        <v>31304.000889</v>
+      </c>
+      <c r="G149" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>16.686531</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.123959</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[89, 269, 311, 383]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>10</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>43</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.152499</v>
+      </c>
+      <c r="F150" t="n">
+        <v>32482.612145</v>
+      </c>
+      <c r="G150" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>17.151703</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.125645</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[329, 269, 311, 156]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>9</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>64</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22351.540153</v>
+      </c>
+      <c r="G151" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>14.852117</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.130649</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[289, 379, 223, 118, 298, 226, 37, 130, 57]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>10</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>54</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.136083</v>
+      </c>
+      <c r="F152" t="n">
+        <v>27718.18659</v>
+      </c>
+      <c r="G152" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>15.904071</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.136848</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>1</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[107, 329, 311, 143, 314, 156]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>42</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.154303</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31304.000889</v>
+      </c>
+      <c r="G153" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>16.686531</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.123959</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[311, 269, 89, 383]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>10</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>40</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.158114</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="G154" t="n">
+        <v>36239.65018</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ACCEPTED</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>20.234071</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.138088</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>1</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[228]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>52</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.138675</v>
+      </c>
+      <c r="F155" t="n">
+        <v>26507.248191</v>
+      </c>
+      <c r="G155" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15.972227</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.128899</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>2</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[272, 116, 368, 53, 248, 359]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>72</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.117851</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19170.69492</v>
+      </c>
+      <c r="G156" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>13.8275</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.134878</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[22, 97, 331, 277, 328, 112, 139, 67, 79, 151, 94, 211, 220]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>14</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>53</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.137361</v>
+      </c>
+      <c r="F157" t="n">
+        <v>29405.855828</v>
+      </c>
+      <c r="G157" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>17.027156</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.132219</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[169, 223, 57, 289, 58, 226]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>7</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.130189</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24137.417272</v>
+      </c>
+      <c r="G158" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>15.688303</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.130226</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O158" t="n">
+        <v>1</v>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[184, 289, 238, 226, 76, 340, 223, 130, 190, 37, 142]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>13</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>53</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.137361</v>
+      </c>
+      <c r="F159" t="n">
+        <v>27938.496708</v>
+      </c>
+      <c r="G159" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>16.592845</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.130935</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[130, 118, 226, 271, 223, 340, 289]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>9</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>50</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.141421</v>
+      </c>
+      <c r="F160" t="n">
+        <v>32149.398353</v>
+      </c>
+      <c r="G160" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>17.674485</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.1363</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O160" t="n">
+        <v>2</v>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[228, 324, 357, 252]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>4</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>46</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.147442</v>
+      </c>
+      <c r="F161" t="n">
+        <v>31920.366876</v>
+      </c>
+      <c r="G161" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>17.417485</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.130794</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[31, 127, 331]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>52</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.138675</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25141.016924</v>
+      </c>
+      <c r="G162" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15.868229</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.128196</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[112, 220, 31, 214, 127, 244, 313, 331, 106]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>11</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>57</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.132453</v>
+      </c>
+      <c r="F163" t="n">
+        <v>27638.328249</v>
+      </c>
+      <c r="G163" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>16.997504</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.138196</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[222, 297, 69, 99, 180, 363, 84, 105]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>12</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>53</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.137361</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24239.836078</v>
+      </c>
+      <c r="G164" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>15.337696</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.125896</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O164" t="n">
+        <v>2</v>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[110, 317, 248, 116, 176, 359, 140]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>8</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>46</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.147442</v>
+      </c>
+      <c r="F165" t="n">
+        <v>33374.660424</v>
+      </c>
+      <c r="G165" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>18.321578</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.133888</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[282, 180, 24, 219, 111, 198]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>7</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>50</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.141421</v>
+      </c>
+      <c r="F166" t="n">
+        <v>26270.665442</v>
+      </c>
+      <c r="G166" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>16.052021</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.127631</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O166" t="n">
+        <v>2</v>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[236, 137, 113, 317, 116, 176, 359, 260]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>9</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SIMPLE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>53</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.137361</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21184.430319</v>
+      </c>
+      <c r="G167" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>14.553782</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.119862</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[313, 316, 220, 10, 265, 109, 217]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>12</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>35</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.169031</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40488.290044</v>
+      </c>
+      <c r="G168" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>19.116003</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.125804</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[311, 383, 269]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>9</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>54</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.136083</v>
+      </c>
+      <c r="F169" t="n">
+        <v>25152.836415</v>
+      </c>
+      <c r="G169" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15.450624</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.131793</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O169" t="n">
+        <v>2</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[342, 231, 375, 9, 48, 204, 336]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>9</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>49</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="F170" t="n">
+        <v>25357.015965</v>
+      </c>
+      <c r="G170" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>15.50082</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.121466</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[106, 55, 313, 253]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>70</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.119523</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18633.510132</v>
+      </c>
+      <c r="G171" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>13.350018</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.133157</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[105, 297, 130, 219, 288, 145, 18, 223, 180, 328, 34, 94]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>13</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>45</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.149071</v>
+      </c>
+      <c r="F172" t="n">
+        <v>33993.898229</v>
+      </c>
+      <c r="G172" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>18.188624</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.130823</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>1</v>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[223, 226, 37, 130]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>6</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CORRECTING</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>49</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="F173" t="n">
+        <v>30860.265032</v>
+      </c>
+      <c r="G173" t="n">
+        <v>43007.069089</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>17.225509</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.134099</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[220, 265, 244, 97, 214]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>5</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
